--- a/Упражнения простые/2.Basic separation.xlsx
+++ b/Упражнения простые/2.Basic separation.xlsx
@@ -1,42 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEB39D8-904B-4938-A5F3-E2F71EC9A2C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C630109-4A78-4D30-AB83-8A81F711C13E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
-    <sheet name="PVT" sheetId="112" r:id="rId2"/>
+    <sheet name="Separation" sheetId="112" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
-    <definedName name="Bob_" localSheetId="1">PVT!$C$14</definedName>
-    <definedName name="dcas_">PVT!$C$20</definedName>
-    <definedName name="din_">PVT!$C$19</definedName>
-    <definedName name="fw_">PVT!$C$22</definedName>
-    <definedName name="gamma_gas_" localSheetId="1">PVT!$C$9</definedName>
-    <definedName name="gamma_oil_" localSheetId="1">PVT!$C$7</definedName>
-    <definedName name="gamma_wat_">PVT!$C$8</definedName>
-    <definedName name="KsepGS_">PVT!$C$23</definedName>
-    <definedName name="muob_">PVT!$C$15</definedName>
-    <definedName name="Pb_" localSheetId="1">PVT!$C$12</definedName>
-    <definedName name="Qliq_">PVT!$C$21</definedName>
-    <definedName name="Rp_" localSheetId="1">PVT!$C$11</definedName>
-    <definedName name="Rsb_" localSheetId="1">PVT!$C$10</definedName>
-    <definedName name="Tres_" localSheetId="1">PVT!$C$13</definedName>
+    <definedName name="Bob_" localSheetId="1">Separation!$C$14</definedName>
+    <definedName name="dcas_">Separation!$C$20</definedName>
+    <definedName name="din_">Separation!$C$19</definedName>
+    <definedName name="fw_">Separation!$C$22</definedName>
+    <definedName name="gamma_gas_" localSheetId="1">Separation!$C$9</definedName>
+    <definedName name="gamma_oil_" localSheetId="1">Separation!$C$7</definedName>
+    <definedName name="gamma_wat_">Separation!$C$8</definedName>
+    <definedName name="KsepGS_">Separation!$C$23</definedName>
+    <definedName name="muob_">Separation!$C$15</definedName>
+    <definedName name="Pb_" localSheetId="1">Separation!$C$12</definedName>
+    <definedName name="Qliq_">Separation!$C$21</definedName>
+    <definedName name="Rp_" localSheetId="1">Separation!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="1">Separation!$C$10</definedName>
+    <definedName name="Tres_" localSheetId="1">Separation!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1225,7 +1225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1289,15 +1289,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1340,7 +1331,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>16426</xdr:colOff>
@@ -1414,7 +1405,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>MF macroses for naural separation estimation</a:t>
+            <a:t>MF macroses for natural separation estimation</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1472,8 +1463,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
       <definedName name="MF_SeparNat_d"/>
@@ -1826,29 +1817,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="V2" s="30" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="V2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
     </row>
     <row r="3" spans="2:25" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -57562,7 +57553,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -57740,12 +57731,12 @@
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:11" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>158</v>
       </c>
@@ -57756,7 +57747,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>159</v>
       </c>
@@ -57767,7 +57758,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11" t="s">
         <v>161</v>
       </c>
@@ -57778,7 +57769,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>162</v>
       </c>
@@ -57789,37 +57780,36 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="7">
         <v>0.5</v>
       </c>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
         <v>166</v>
       </c>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="16" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:11" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B27" s="21">
         <v>23</v>
       </c>
@@ -57835,12 +57825,12 @@
         <v>0.84143331095596552</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B30" s="18" t="s">
         <v>0</v>
       </c>
@@ -57872,7 +57862,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="21">
         <v>23</v>
       </c>
@@ -57887,7 +57877,7 @@
         <f>[1]!PVT_Bo_m3m3(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,E27,B27,C27)</f>
         <v>1.0571009336856951</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="25">
         <f>[1]!PVT_Muo_cP(B31,C31,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,E27,B27,C27)</f>
         <v>1.2589864219547862</v>
       </c>
